--- a/data/trans_orig/EDAD_G2-Clase-trans_orig.xlsx
+++ b/data/trans_orig/EDAD_G2-Clase-trans_orig.xlsx
@@ -13937,97 +13937,97 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>1095</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>0,37%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
+      <c r="R4" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>1131</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>0,41%</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T4" s="2" t="inlineStr">
-        <is>
-          <t>1114</t>
-        </is>
-      </c>
-      <c r="U4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>0,19%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -14845,97 +14845,97 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>1080</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>0,55%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K12" s="2" t="inlineStr">
+      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>1127</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O12" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P12" s="2" t="inlineStr">
-        <is>
-          <t>0,49%</t>
-        </is>
-      </c>
-      <c r="Q12" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S12" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T12" s="2" t="inlineStr">
-        <is>
-          <t>1107</t>
-        </is>
-      </c>
-      <c r="U12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>0,26%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -15753,97 +15753,97 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>999</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>0,55%</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K20" s="2" t="inlineStr">
+      <c r="R20" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L20" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M20" s="2" t="inlineStr">
-        <is>
-          <t>1005</t>
-        </is>
-      </c>
-      <c r="N20" s="2" t="inlineStr">
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U20" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O20" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P20" s="2" t="inlineStr">
-        <is>
-          <t>1,21%</t>
-        </is>
-      </c>
-      <c r="Q20" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R20" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S20" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T20" s="2" t="inlineStr">
-        <is>
-          <t>1003</t>
-        </is>
-      </c>
-      <c r="U20" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>0,38%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -16661,97 +16661,97 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F28" s="2" t="inlineStr">
-        <is>
-          <t>1021</t>
-        </is>
-      </c>
-      <c r="G28" s="2" t="inlineStr">
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H28" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I28" s="2" t="inlineStr">
-        <is>
-          <t>0,33%</t>
-        </is>
-      </c>
-      <c r="J28" s="2" t="inlineStr">
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K28" s="2" t="inlineStr">
+      <c r="R28" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L28" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M28" s="2" t="inlineStr">
-        <is>
-          <t>1091</t>
-        </is>
-      </c>
-      <c r="N28" s="2" t="inlineStr">
+      <c r="S28" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T28" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U28" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O28" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P28" s="2" t="inlineStr">
-        <is>
-          <t>0,34%</t>
-        </is>
-      </c>
-      <c r="Q28" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R28" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S28" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T28" s="2" t="inlineStr">
-        <is>
-          <t>1056</t>
-        </is>
-      </c>
-      <c r="U28" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>0,17%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -17569,97 +17569,97 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F36" s="2" t="inlineStr">
-        <is>
-          <t>1105</t>
-        </is>
-      </c>
-      <c r="G36" s="2" t="inlineStr">
+      <c r="K36" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L36" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M36" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N36" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H36" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I36" s="2" t="inlineStr">
-        <is>
-          <t>0,73%</t>
-        </is>
-      </c>
-      <c r="J36" s="2" t="inlineStr">
+      <c r="O36" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P36" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q36" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K36" s="2" t="inlineStr">
+      <c r="R36" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L36" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M36" s="2" t="inlineStr">
-        <is>
-          <t>1110</t>
-        </is>
-      </c>
-      <c r="N36" s="2" t="inlineStr">
+      <c r="S36" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T36" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U36" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O36" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P36" s="2" t="inlineStr">
-        <is>
-          <t>0,72%</t>
-        </is>
-      </c>
-      <c r="Q36" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R36" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S36" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T36" s="2" t="inlineStr">
-        <is>
-          <t>1110</t>
-        </is>
-      </c>
-      <c r="U36" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V36" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W36" s="2" t="inlineStr">
         <is>
-          <t>0,36%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -18477,97 +18477,97 @@
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F44" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G44" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H44" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I44" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J44" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F44" s="2" t="inlineStr">
-        <is>
-          <t>1106</t>
-        </is>
-      </c>
-      <c r="G44" s="2" t="inlineStr">
+      <c r="K44" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L44" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M44" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N44" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H44" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I44" s="2" t="inlineStr">
-        <is>
-          <t>11,83%</t>
-        </is>
-      </c>
-      <c r="J44" s="2" t="inlineStr">
+      <c r="O44" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P44" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q44" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K44" s="2" t="inlineStr">
+      <c r="R44" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L44" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M44" s="2" t="inlineStr">
-        <is>
-          <t>1163</t>
-        </is>
-      </c>
-      <c r="N44" s="2" t="inlineStr">
+      <c r="S44" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T44" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U44" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O44" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P44" s="2" t="inlineStr">
-        <is>
-          <t>9,49%</t>
-        </is>
-      </c>
-      <c r="Q44" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R44" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S44" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T44" s="2" t="inlineStr">
-        <is>
-          <t>1177</t>
-        </is>
-      </c>
-      <c r="U44" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V44" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W44" s="2" t="inlineStr">
         <is>
-          <t>5,45%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -19385,97 +19385,97 @@
       </c>
       <c r="E52" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J52" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F52" s="2" t="inlineStr">
-        <is>
-          <t>1060</t>
-        </is>
-      </c>
-      <c r="G52" s="2" t="inlineStr">
+      <c r="K52" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L52" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M52" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N52" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H52" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I52" s="2" t="inlineStr">
-        <is>
-          <t>0,09%</t>
-        </is>
-      </c>
-      <c r="J52" s="2" t="inlineStr">
+      <c r="O52" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P52" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q52" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K52" s="2" t="inlineStr">
+      <c r="R52" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L52" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M52" s="2" t="inlineStr">
-        <is>
-          <t>1109</t>
-        </is>
-      </c>
-      <c r="N52" s="2" t="inlineStr">
+      <c r="S52" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T52" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U52" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O52" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P52" s="2" t="inlineStr">
-        <is>
-          <t>0,1%</t>
-        </is>
-      </c>
-      <c r="Q52" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R52" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S52" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T52" s="2" t="inlineStr">
-        <is>
-          <t>1083</t>
-        </is>
-      </c>
-      <c r="U52" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V52" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W52" s="2" t="inlineStr">
         <is>
-          <t>0,05%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/EDAD_G2-Clase-trans_orig.xlsx
+++ b/data/trans_orig/EDAD_G2-Clase-trans_orig.xlsx
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Grupo de edad en País Vasco</t>
+          <t>Grupo de edad en País Vasco (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -7144,7 +7144,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Grupo de edad en Andalucia</t>
+          <t>Grupo de edad en Andalucia (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -13742,7 +13742,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Grupo de edad en C.Valenciana</t>
+          <t>Grupo de edad en C.Valenciana (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -20340,7 +20340,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Grupo de edad en Barcelona</t>
+          <t>Grupo de edad en Barcelona (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
